--- a/data/bounds.xlsx
+++ b/data/bounds.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Billy\Documents\Math\Research\BGT_Sonographer\Code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC06949-7990-465F-B563-04D4788F105C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CF8784-9119-48FD-A31D-7BC41B1627AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4500" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="metadata" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
-    <sheet name="mean" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="mean" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +37,126 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Vasilis</author>
+  </authors>
+  <commentList>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{BF0B4AAE-4E23-4A36-AE52-A24CE8572C27}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasilis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+★</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{ED5ACAF6-9241-4875-9023-60DC7976F3CA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>εχουν άλλη φορμουλα αυτοι: 
+"Which is the most accurate formula to estimate fetal weight in women with severe
+preterm preeclampsia?"
+και
+"Comparison of eleven commonly used formulae
+for sonographic estimation of fetal weight in prediction
+of actual birth weight"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{87D8C554-8170-4A9B-9481-E64796DAA72A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasilis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Δεν βρισκω το paper για να συγκρινω. Εχει ένα BW αντι για EFW, αλλα συμφωνουν με τον "Which is the most accurate formula to estimate fetal weight in women with severe
+preterm preeclampsia?"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{AFB0BD65-DAA0-4488-BD3B-AFF88406342B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasilis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Vasilis:
+Δεν βρισκω το paper για να συγκρινω. Εχει ένα BW αντι για EFW, αλλα συμφωνουν με τον "Which is the most accurate formula to estimate fetal weight in women with severe
+preterm preeclampsia?"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{A43C491B-4ECB-4469-BBB5-BD3253E8EA7A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Διαφωνει ο author με τον μαστορα</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="189">
   <si>
     <t>HC_min</t>
   </si>
@@ -69,25 +188,16 @@
     <t>Shepard (1982)</t>
   </si>
   <si>
-    <t>Jordaan (1983)</t>
-  </si>
-  <si>
     <t>Thurnau</t>
   </si>
   <si>
     <t>Hadlock (1984)</t>
   </si>
   <si>
-    <t>Hadlock (1985)</t>
-  </si>
-  <si>
     <t>Ott (1985)</t>
   </si>
   <si>
     <t>Roberts (1985)</t>
-  </si>
-  <si>
-    <t>Woo (1985)</t>
   </si>
   <si>
     <t>Woo (1986)</t>
@@ -112,9 +222,6 @@
   </si>
   <si>
     <t>Ferrero (1994)</t>
-  </si>
-  <si>
-    <t>Weiner (1985)</t>
   </si>
   <si>
     <t>10^{-1.7492+0.166\left(\text{BPD}\right)+0.046\left(\text{AC}\right)-0.002646\left(\text{BPD}\right)\left(\text{AC}\right)}</t>
@@ -420,880 +527,6 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>1.1134</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.1694</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.05845</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.007365</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.000604</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.000595</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>])</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1.3596</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.00061</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.424</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.174</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.0064</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.00386</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>])</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
       <t>1.326</t>
     </r>
     <r>
@@ -2514,7 +1747,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>1.54</t>
+      <t>1.63</t>
     </r>
     <r>
       <rPr>
@@ -2550,7 +1783,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0.15</t>
+      <t>0.16</t>
     </r>
     <r>
       <rPr>
@@ -2703,7 +1936,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0.0000764</t>
+      <t>0.0000859</t>
     </r>
     <r>
       <rPr>
@@ -2802,169 +2035,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.05</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.000992</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>])</t>
+      <t>)</t>
     </r>
   </si>
   <si>
@@ -2996,7 +2067,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>1.13705</t>
+      <t>0.59</t>
     </r>
     <r>
       <rPr>
@@ -3032,7 +2103,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0.15549</t>
+      <t>0.08</t>
     </r>
     <r>
       <rPr>
@@ -3095,7 +2166,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0.04864</t>
+      <t>0.28</t>
     </r>
     <r>
       <rPr>
@@ -3158,7 +2229,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>2.79682</t>
+      <t>0.00716</t>
     </r>
     <r>
       <rPr>
@@ -3230,223 +2301,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.037769</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>4.94529</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>10000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
+      <t>])</t>
     </r>
   </si>
   <si>
@@ -3478,7 +2333,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>1.13</t>
+      <t>1.6961</t>
     </r>
     <r>
       <rPr>
@@ -3514,7 +2369,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0.181864</t>
+      <t>0.02253</t>
     </r>
     <r>
       <rPr>
@@ -3541,6 +2396,69 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.01645</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -3577,7 +2495,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0.0517505</t>
+      <t>0.06439</t>
     </r>
     <r>
       <rPr>
@@ -3613,133 +2531,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>3.34825</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
+      <t>])</t>
     </r>
   </si>
   <si>
@@ -3771,7 +2563,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>1.63</t>
+      <t>1.6575</t>
     </r>
     <r>
       <rPr>
@@ -3807,7 +2599,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0.16</t>
+      <t>0.04035</t>
     </r>
     <r>
       <rPr>
@@ -3834,6 +2626,69 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.01285</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -3843,228 +2698,12 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.00111</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.0000859</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
+      <t>])</t>
     </r>
   </si>
   <si>
     <r>
-      <t>10</t>
+      <t>1.4</t>
     </r>
     <r>
       <rPr>
@@ -4073,16 +2712,16 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
     </r>
     <r>
       <rPr>
@@ -4091,7 +2730,97 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0.59</t>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
     </r>
     <r>
       <rPr>
@@ -4105,227 +2834,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color rgb="FFFAB387"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0.08</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.28</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.00716</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>])</t>
+      <t>200</t>
     </r>
   </si>
   <si>
@@ -4357,7 +2870,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>1.6961</t>
+      <t>2.1315</t>
     </r>
     <r>
       <rPr>
@@ -4393,7 +2906,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0.02253</t>
+      <t>0.0056541</t>
     </r>
     <r>
       <rPr>
@@ -4420,6 +2933,258 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.00015515</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.000019782</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>3</t>
     </r>
     <r>
@@ -4429,7 +3194,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">] </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -4456,7 +3221,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0.01645</t>
+      <t>0.052594</t>
     </r>
     <r>
       <rPr>
@@ -4484,69 +3249,6 @@
         <family val="3"/>
       </rPr>
       <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.06439</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -4587,7 +3289,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>1.6575</t>
+      <t>1.879</t>
     </r>
     <r>
       <rPr>
@@ -4623,7 +3325,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0.04035</t>
+      <t>0.084</t>
     </r>
     <r>
       <rPr>
@@ -4650,70 +3352,70 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.026</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.01285</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -4727,7 +3429,25 @@
   </si>
   <si>
     <r>
-      <t>1.4</t>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3200.40479</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -4736,6 +3456,33 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>157.07186</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -4754,6 +3501,69 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>15.90391</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -4772,16 +3582,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
+      <t>^</t>
     </r>
     <r>
       <rPr>
@@ -4791,83 +3592,11 @@
         <family val="3"/>
       </rPr>
       <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>200</t>
     </r>
   </si>
   <si>
     <r>
-      <t>10</t>
+      <t>0.23718</t>
     </r>
     <r>
       <rPr>
@@ -4876,25 +3605,52 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>^</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color rgb="FFFAB387"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>2.792</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -4912,6 +3668,42 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>+</t>
     </r>
     <r>
@@ -4930,7 +3722,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0.108</t>
+      <t>0.03312</t>
     </r>
     <r>
       <rPr>
@@ -4957,16 +3749,16 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
     </r>
     <r>
       <rPr>
@@ -4975,16 +3767,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>^</t>
     </r>
     <r>
       <rPr>
@@ -4993,1598 +3776,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0.000036</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.00027</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>])</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2.1315</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.0056541</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.00015515</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.000019782</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
       <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.052594</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>])</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1.879</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.084</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.026</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>])</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>3200.40479</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>157.07186</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>15.90391</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0.23718</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.03312</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.77125</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.13244</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.12996</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1.73588</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>3.09212</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2.18984</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF94E2D5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>x[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFAB387"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCDD6F4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>])</t>
     </r>
   </si>
   <si>
@@ -7453,9 +4645,6 @@
   </si>
   <si>
     <t>BPD, AC, FL, HC</t>
-  </si>
-  <si>
-    <t>BPD, FL, HC</t>
   </si>
   <si>
     <t>AC, FL, HC</t>
@@ -7553,6 +4742,3545 @@
   <si>
     <t>f28</t>
   </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.3596</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.00061</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.0424</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.174</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.0064</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.00386</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <t>Hadlock IV (1985)</t>
+  </si>
+  <si>
+    <t>Hadlock I (1985)</t>
+  </si>
+  <si>
+    <t>Hadlock II (1985)</t>
+  </si>
+  <si>
+    <t>Hadlock III (1985)</t>
+  </si>
+  <si>
+    <t>Shepard I (1982)</t>
+  </si>
+  <si>
+    <t>Weiner I (1985)</t>
+  </si>
+  <si>
+    <t>Weiner II (1985)</t>
+  </si>
+  <si>
+    <t>Woo I (1985)</t>
+  </si>
+  <si>
+    <t>Woo II (1985)</t>
+  </si>
+  <si>
+    <t>Woo III (1985)</t>
+  </si>
+  <si>
+    <t>Woo IV (1985)</t>
+  </si>
+  <si>
+    <t>Woo V (1985)</t>
+  </si>
+  <si>
+    <t>Jordaan I (1983)</t>
+  </si>
+  <si>
+    <t>Jordaan IV (1983)</t>
+  </si>
+  <si>
+    <t>10^{-1.599+0.144\left(\text{BPD}\right)+0.032\left(\text{AC}\right)-0.000111\left(\text{BPD}\right)^2\left(\text{AC}\right)}</t>
+  </si>
+  <si>
+    <t>Thurnau (1983)</t>
+  </si>
+  <si>
+    <t>9.337\left(\text{BPD}\right)\left(\text{AC}\right) - 229</t>
+  </si>
+  <si>
+    <t>10^{-2.0661+0.04355\left(\text{HC}\right)+0.05394\left(\text{AC}\right)-0.0008582\left(\text{AC}\right)\left(\text{HC}\right)+1.2594\left(\text{AC}\right){\left(\text{FL}\right)}{\left(\text{AC}\right)}}</t>
+  </si>
+  <si>
+    <t>f29</t>
+  </si>
+  <si>
+    <t>INTERGROWTH-21 (2017)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>exp(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5.084820 - 54.06633 * (x[1]/100)^3 - 95.80076 * log(x[1]/100) * (x[1]/100)^3 + 3.136370 * x[2] / 100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.1134</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1694</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.05845</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.007365</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.000604</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.000595</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <t>10^{1.1134+0.05845\left(\text{AC}\right)-0.000604\left(\text{AC}\right)^2+0.007365\left(\text{BPD}\right)^2+0.000595\left(\text{BPD}\right)\left(\text{AC}\right)+0.1694\left(\text{BPD}\right)}</t>
+  </si>
+  <si>
+    <t>f30</t>
+  </si>
+  <si>
+    <t>10^{0.64041\left(\text{BPD}\right)-0.03257\left(\text{BPD}\right)^2+0.00154\left(\text{AC}\right)\left(\text{FL}\right)}</t>
+  </si>
+  <si>
+    <t>Halaska (2006)</t>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.64041</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.03257</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.00154</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <t>Jordaan II (1983)</t>
+  </si>
+  <si>
+    <t>Schild (2004)</t>
+  </si>
+  <si>
+    <t>f31</t>
+  </si>
+  <si>
+    <t>5381.193 + 150.324 * x[3] + 2.069 * x[2]^3 + 0.0232 * x[1]^3 - 6235.478 * log10(x[3])</t>
+  </si>
+  <si>
+    <t>5381.193 + 150.324 \left(\text{HC}\right) + 2.069 \left(\text{FL}\right)^3 + 0.0232 \left(\text{AC}\right)^3 - 6235.478 \log(\text{HC})</t>
+  </si>
+  <si>
+    <t>Ott (1986)</t>
+  </si>
+  <si>
+    <t>Shepard II (1982)</t>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.599</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.144</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.032</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.000111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[2]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[1]^2)</t>
+    </r>
+  </si>
+  <si>
+    <t>10^{-1.599+0.144\left(\text{BPD}\right)+0.032\left(\text{AC}\right)-0.000111\left(\text{AC}\right)\left(\text{BPD}\right)^2}</t>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.77125</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.13244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.12996</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.73588</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3.09212</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2.18984</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <t>Siemer (2007)</t>
+  </si>
+  <si>
+    <t>f32</t>
+  </si>
+  <si>
+    <t>Vintzileos I (1987)</t>
+  </si>
+  <si>
+    <t>f33</t>
+  </si>
+  <si>
+    <t>Vintzileos II (1987)</t>
+  </si>
+  <si>
+    <t>10^(2.082 + 0.004 * x[3] * x[2] + 0.0018 * x[1] - 0.00000001509 * (x[3] * x[2])^3)</t>
+  </si>
+  <si>
+    <t>10^{2.082 + 0.004  \left(\text{HC}\right)  \left(\text{FL}\right) + 0.0018  \left(\text{AC}\right) - 0.00000001509 \left( \left(\text{HC}\right)  \left(\text{FL}\right) \right)^3}</t>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.54</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.00111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.0000764</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.000992</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <t>10^{1.54+0.15\left(\text{BPD}\right)+0.00111\left(\text{AC}\right)^2-0.0000764\left(\text{BPD}\right)\left(\text{AC}\right)^2+0.5\left(\text{FL}\right)-0.000992\left(\text{AC}\right)\left(\text{FL}\right)}</t>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3.35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>10^{1.13+0.18\left(\text{BPD}\right)+0.05\left(\text{AC}\right)-3.35\left(\text{BPD}\right)\left(\text{AC}\right)/1000}</t>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>10^{1.14+0.16\left(\text{BPD}\right)+0.05\left(\text{AC}\right)-2.8\left(\text{BPD}\right)\left(\text{AC}\right)/1000+0.04\left(\text{FL}\right)-4.9\left(\text{AC}\right)\left(\text{FL}\right)/10000}</t>
+  </si>
+  <si>
+    <t>-5948.336 + 2101.261 * log(x[2]) + 15.613 * x[3]^2 + 0.577 * x[1]^3</t>
+  </si>
+  <si>
+    <r>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2.792</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.108</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.000036</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.00027</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF94E2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFAB387"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCDD6F4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <t>\e^{2.792+0.108\left(\text{FL}\right)+0.000036\left(\text{AC}\right)^2-0.00027\left(\text{AC}\right)\left(\text{FL}\right)}</t>
+  </si>
+  <si>
+    <t>\e^{5.084820 - 54.06633\left( \left(\text{AC}\right) / 100 \right)^3 - 95.80076 \left( \left(\text{AC}\right) / 100 \right)^3 \ln\left(\left(\text{AC}\right) / 100 \right) + 3.136370 \left(\text{HC}\right) / 100 }</t>
+  </si>
 </sst>
 </file>
 
@@ -7561,7 +8289,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7643,13 +8371,38 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -7679,7 +8432,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7739,6 +8492,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -20376,10 +21131,10 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -21166,36 +21921,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0815981-AAAA-4FE3-B0FD-623B5BDA2F70}">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0815981-AAAA-4FE3-B0FD-623B5BDA2F70}">
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="108" customWidth="1"/>
     <col min="5" max="5" width="19" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
@@ -21203,533 +21959,955 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" t="s">
-        <v>72</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E2"/>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
+        <v>133</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>115</v>
+        <v>99</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>171</v>
       </c>
       <c r="E3"/>
-      <c r="F3" s="6"/>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="E4" t="s">
         <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" t="s">
-        <v>74</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E5"/>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" t="s">
-        <v>79</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E10"/>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12"/>
+        <v>94</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13"/>
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>90</v>
+        <v>97</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="E14"/>
-      <c r="F14" s="7" t="s">
-        <v>50</v>
+      <c r="F14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E16"/>
-      <c r="F16" t="s">
-        <v>38</v>
+      <c r="F16" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17"/>
+        <v>165</v>
+      </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E19"/>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>96</v>
+        <v>104</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="E20"/>
-      <c r="F20" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21"/>
-      <c r="F21" t="s">
-        <v>47</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22"/>
+        <v>79</v>
+      </c>
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24"/>
+        <v>102</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25"/>
+        <v>96</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26" t="s">
-        <v>21</v>
+        <v>127</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>15</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="23" t="s">
         <v>102</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F34">
+    <sortCondition ref="B1:B34"/>
+  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F03A7A-9C17-40EE-AC59-A074A6285D0D}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="240">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE9A640-7CBF-410C-8BD8-0779F90B97E2}">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A32"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21757,19 +22935,19 @@
         <v>6</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>1</v>
@@ -21778,7 +22956,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>3</v>
@@ -21787,7 +22965,7 @@
         <v>4</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>5</v>
@@ -21841,10 +23019,10 @@
       </c>
       <c r="N2" s="11"/>
       <c r="O2" s="18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
@@ -21893,7 +23071,7 @@
       <c r="N3" s="11"/>
       <c r="O3" s="18"/>
       <c r="P3" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
@@ -21941,10 +23119,10 @@
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
@@ -21992,10 +23170,10 @@
       </c>
       <c r="N5" s="11"/>
       <c r="O5" s="18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
@@ -23284,8 +24462,8 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" display="https://obgyn.onlinelibrary.wiley.com/doi/abs/10.1111/j.1471-0528.1999.tb08213.x" xr:uid="{6D19ED86-F17A-418C-B5DB-146A49298026}"/>
-    <hyperlink ref="P3" r:id="rId2" display="https://obgyn.onlinelibrary.wiley.com/doi/full/10.1111/j.1471-0528.1999.tb08212.x" xr:uid="{C967D41A-6022-4125-8EC9-667D71C3CA88}"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{6D19ED86-F17A-418C-B5DB-146A49298026}"/>
+    <hyperlink ref="P3" r:id="rId2" xr:uid="{C967D41A-6022-4125-8EC9-667D71C3CA88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -23295,7 +24473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B427D037-D278-466E-921C-CC4259E2AB09}">
   <dimension ref="A1:E58"/>
   <sheetViews>
@@ -23310,16 +24488,16 @@
         <v>6</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5">
